--- a/RUDN/Importance/Varible_muatal_reg_in_RUS.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_RUS.xlsx
@@ -22,21 +22,21 @@
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -49,162 +49,165 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
@@ -220,114 +223,111 @@
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
@@ -337,42 +337,48 @@
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Rural population</t>
   </si>
   <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 60-64</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
@@ -382,9 +388,6 @@
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
@@ -394,21 +397,21 @@
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
@@ -445,93 +445,93 @@
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
@@ -544,120 +544,123 @@
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Poverty gap at national poverty lines (%)</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
@@ -667,12 +670,12 @@
     <t>Female population 50-54</t>
   </si>
   <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
@@ -694,132 +697,132 @@
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
@@ -874,33 +877,33 @@
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -916,147 +919,144 @@
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
@@ -1072,10 +1072,10 @@
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Region_code</t>
+  </si>
+  <si>
     <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Region_code</t>
   </si>
   <si>
     <t>Country_code</t>
@@ -1535,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.139108114108115</v>
+        <v>1.141672216672217</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.132697857697858</v>
+        <v>1.128851703851704</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.128851703851704</v>
+        <v>1.116031191031191</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.116031191031192</v>
+        <v>1.113467088467089</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.116031191031191</v>
+        <v>1.109620934620935</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.113467088467089</v>
+        <v>1.109620934620934</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.109620934620935</v>
+        <v>1.107056832056832</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.109620934620934</v>
+        <v>1.100646575646576</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.091672216672217</v>
+        <v>1.090390165390166</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.090390165390166</v>
+        <v>1.087826062826063</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.058338883338884</v>
+        <v>1.066031191031192</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.055774780774781</v>
+        <v>1.058338883338884</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.050646575646576</v>
+        <v>1.055774780774781</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.049364524364525</v>
+        <v>1.050646575646576</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.049364524364525</v>
+        <v>1.046800421800422</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.046800421800422</v>
+        <v>1.042954267954269</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.042954267954269</v>
+        <v>1.042954267954268</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.042954267954268</v>
+        <v>1.036544011544012</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.036544011544012</v>
+        <v>1.02500555000555</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.02500555000555</v>
+        <v>1.023723498723499</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.00449272949273</v>
+        <v>1.012185037185038</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.003210678210679</v>
+        <v>1.00449272949273</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.9980824730824738</v>
+        <v>1.003210678210679</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.9980824730824736</v>
+        <v>0.9980824730824738</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.9973498723498728</v>
+        <v>0.9980824730824736</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.9929542679542684</v>
+        <v>0.9980824730824736</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.9929542679542682</v>
+        <v>0.9973498723498728</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.9916722166722172</v>
+        <v>0.9929542679542682</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.9891081141081148</v>
+        <v>0.9916722166722172</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.9891081141081146</v>
+        <v>0.9891081141081148</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.9839799089799095</v>
+        <v>0.9891081141081146</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.9737234987234993</v>
+        <v>0.9724414474414476</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.972441447441448</v>
+        <v>0.9634670884670893</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.9724414474414476</v>
+        <v>0.9609029859029863</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.9634670884670893</v>
+        <v>0.9532106782106784</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.9609029859029863</v>
+        <v>0.9506465756465765</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.9532106782106784</v>
+        <v>0.9506465756465765</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.9506465756465765</v>
+        <v>0.9506465756465761</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.9506465756465765</v>
+        <v>0.9506465756465761</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.9506465756465761</v>
+        <v>0.9480824730824737</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.9506465756465761</v>
+        <v>0.9429542679542686</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.9480824730824737</v>
+        <v>0.9416722166722171</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.9429542679542686</v>
+        <v>0.9403901653901661</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.9416722166722171</v>
+        <v>0.9403901653901661</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.9403901653901661</v>
+        <v>0.9262876012876018</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.9403901653901661</v>
+        <v>0.9224414474414473</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.9262876012876018</v>
+        <v>0.9211593961593962</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.9211593961593962</v>
+        <v>0.9173132423132426</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.9173132423132426</v>
+        <v>0.9134670884670892</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.9070568320568326</v>
+        <v>0.900646575646576</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.900646575646576</v>
+        <v>0.899364524364525</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.899364524364525</v>
+        <v>0.8942363192363199</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.8942363192363199</v>
+        <v>0.8814158064158069</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.8814158064158069</v>
+        <v>0.8750055500055505</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.8750055500055505</v>
+        <v>0.8737234987234992</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.8737234987234992</v>
+        <v>0.8711593961593964</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.8711593961593964</v>
+        <v>0.8691447441447444</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.8691447441447444</v>
+        <v>0.8634670884670885</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.8634670884670885</v>
+        <v>0.8453352203352207</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.8453352203352207</v>
+        <v>0.8442363192363196</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.8015623265623273</v>
+        <v>0.8147491397491402</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.7942363192363195</v>
+        <v>0.8015623265623273</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.7929542679542685</v>
+        <v>0.7942363192363195</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.7909396159396169</v>
+        <v>0.7929542679542685</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.7896575646575654</v>
+        <v>0.7909396159396169</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.7874597624597632</v>
+        <v>0.7896575646575654</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.7550421800421805</v>
+        <v>0.7625208125208132</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.7499139749139756</v>
+        <v>0.7618187368187375</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.7468004218004227</v>
+        <v>0.7550421800421805</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.743290043290044</v>
+        <v>0.7499139749139756</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.7390165390165395</v>
+        <v>0.7468004218004227</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.7358114108114113</v>
+        <v>0.7390165390165395</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.7343156843156846</v>
+        <v>0.7358114108114113</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.7211593961593965</v>
+        <v>0.7343156843156846</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.7147491397491403</v>
+        <v>0.7211593961593965</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.708338883338884</v>
+        <v>0.7147491397491403</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.7056832056832059</v>
+        <v>0.708338883338884</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.6993645243645248</v>
+        <v>0.7056832056832059</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.6903901653901661</v>
+        <v>0.6993645243645248</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.6891081141081148</v>
+        <v>0.6903901653901661</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.6801337551337561</v>
+        <v>0.6891081141081148</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.645426795426796</v>
+        <v>0.6414890664890671</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.6414890664890671</v>
+        <v>0.6414890664890669</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.6414890664890669</v>
+        <v>0.6409396159396166</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.6409396159396166</v>
+        <v>0.6394438894438901</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.6394438894438901</v>
+        <v>0.6391081141081145</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.6391081141081145</v>
+        <v>0.6376429126429131</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.6376429126429131</v>
+        <v>0.637093462093463</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.637093462093463</v>
+        <v>0.6326978576978584</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.6326978576978584</v>
+        <v>0.6259213009213018</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.6259213009213018</v>
+        <v>0.6217088467088474</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.6217088467088474</v>
+        <v>0.6198773448773451</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.6198773448773451</v>
+        <v>0.6184121434121439</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.6184121434121439</v>
+        <v>0.6176157176157178</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.6176157176157178</v>
+        <v>0.6139249639249642</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.6139249639249642</v>
+        <v>0.6109029859029864</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.6109029859029864</v>
+        <v>0.6081557331557339</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.6081557331557339</v>
+        <v>0.6070568320568326</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.6070568320568326</v>
+        <v>0.6061105561105566</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.6061105561105566</v>
+        <v>0.60449272949273</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.60449272949273</v>
+        <v>0.6030275280275288</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.6030275280275288</v>
+        <v>0.6024780774780782</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.6024780774780782</v>
+        <v>0.5992729492729505</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.5992729492729505</v>
+        <v>0.5992729492729498</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.5955183705183713</v>
+        <v>0.5870296370296373</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.5870296370296373</v>
+        <v>0.5870018870018875</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.5870018870018875</v>
+        <v>0.5859945609945616</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.5859945609945616</v>
+        <v>0.5844377844377846</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.5844377844377846</v>
+        <v>0.5832473082473084</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.5832473082473084</v>
+        <v>0.5826978576978581</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.5826978576978581</v>
+        <v>0.5825147075147077</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.5825147075147077</v>
+        <v>0.5820568320568327</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.5820568320568327</v>
+        <v>0.5805000555000561</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.5805000555000561</v>
+        <v>0.5799506049506051</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.5799506049506051</v>
+        <v>0.5762876012876019</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.5762876012876019</v>
+        <v>0.5734487734487741</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.5759213009213013</v>
+        <v>0.5711593961593968</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.5734487734487741</v>
+        <v>0.5704267954267959</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.5711593961593968</v>
+        <v>0.5676795426795431</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.5704267954267959</v>
+        <v>0.567313242313243</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.5676795426795431</v>
+        <v>0.5669469419469426</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.567313242313243</v>
+        <v>0.5638333888333897</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.5669469419469426</v>
+        <v>0.557056832056833</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.5640165390165397</v>
+        <v>0.5557747807747815</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.5638333888333897</v>
+        <v>0.5552253302253312</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.5557747807747815</v>
+        <v>0.5498223998224003</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.5552253302253312</v>
+        <v>0.5498223998224003</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.5498223998224003</v>
+        <v>0.5416722166722174</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.5498223998224003</v>
+        <v>0.5416722166722174</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.5416722166722174</v>
+        <v>0.5413059163059171</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.5416722166722174</v>
+        <v>0.5301337551337559</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.5413059163059171</v>
+        <v>0.5268370518370527</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.5301337551337559</v>
+        <v>0.522166722166723</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.5268370518370527</v>
+        <v>0.5200604950604952</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.522166722166723</v>
+        <v>0.5177711177711182</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.5177711177711182</v>
+        <v>0.5165806415806422</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.5165806415806422</v>
+        <v>0.5130702630702639</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.5130702630702639</v>
+        <v>0.5127344877344884</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.505377955377956</v>
+        <v>0.5081557331557334</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.5044927294927302</v>
+        <v>0.505377955377956</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.5017454767454774</v>
+        <v>0.5044927294927302</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.5004634254634257</v>
+        <v>0.5017454767454774</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.4970751470751475</v>
+        <v>0.5004634254634257</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.4934121434121437</v>
+        <v>0.4970751470751475</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.4914890664890672</v>
+        <v>0.4934121434121437</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.4909396159396164</v>
+        <v>0.4914890664890672</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.4837051837051842</v>
+        <v>0.4909396159396164</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.4831557331557337</v>
+        <v>0.4837051837051842</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.4794011544011547</v>
+        <v>0.4831557331557337</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.4781191031191034</v>
+        <v>0.4794011544011547</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.4761960261960265</v>
+        <v>0.4601703851703858</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.4755550005550011</v>
+        <v>0.4595293595293604</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.4601703851703858</v>
+        <v>0.4587967587967592</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.4587967587967592</v>
+        <v>0.4506465756465756</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.4506465756465756</v>
+        <v>0.4495171495171499</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.4495171495171499</v>
+        <v>0.445976245976246</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.445976245976246</v>
+        <v>0.4412753912753919</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.4412753912753919</v>
+        <v>0.4398684648684652</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.4398684648684652</v>
+        <v>0.4373987123987131</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.4245781995781999</v>
+        <v>0.4251887001887003</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.4141996891996893</v>
+        <v>0.4120018870018871</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.4120018870018871</v>
+        <v>0.4040043290043296</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.4040043290043296</v>
+        <v>0.4040043290043294</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.4040043290043294</v>
+        <v>0.4032717282717293</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.4032717282717293</v>
+        <v>0.4016539016539025</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.4016539016539025</v>
+        <v>0.4015318015318017</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.4015318015318017</v>
+        <v>0.3986319236319245</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.4009213009213011</v>
+        <v>0.392587967587968</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.392587967587968</v>
+        <v>0.3919164169164175</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.3919164169164175</v>
+        <v>0.391641691641692</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.391641691641692</v>
+        <v>0.3910922410922419</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.3910922410922419</v>
+        <v>0.3874597624597627</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.3874597624597627</v>
+        <v>0.3850788100788103</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.3850788100788103</v>
+        <v>0.3807387057387066</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.3699661449661455</v>
+        <v>0.3710067710067715</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.3676795426795434</v>
+        <v>0.3699661449661455</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.3600482850482856</v>
+        <v>0.3676795426795434</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.3537601287601295</v>
+        <v>0.3600482850482856</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>0.3473137973137981</v>
+        <v>0.3560495060495059</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.3419164169164173</v>
+        <v>0.3537601287601295</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.3400238650238654</v>
+        <v>0.3419164169164173</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.3366966366966369</v>
+        <v>0.3400238650238654</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.3309274059274061</v>
+        <v>0.3366966366966369</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.3304084804084808</v>
+        <v>0.3309274059274061</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.3270812520812525</v>
+        <v>0.3304084804084808</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.3231435231435229</v>
+        <v>0.3270812520812525</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.3209762459762462</v>
+        <v>0.3231435231435229</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.3205488955488962</v>
+        <v>0.3209762459762462</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.3175241425241433</v>
+        <v>0.3205488955488962</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.3162143412143419</v>
+        <v>0.3175241425241433</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.3127039627039625</v>
+        <v>0.3162143412143419</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.312276612276613</v>
+        <v>0.3127039627039625</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.3120018870018877</v>
+        <v>0.312276612276613</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.3119103119103122</v>
+        <v>0.3120018870018877</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.311788211788212</v>
+        <v>0.3119103119103122</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.3110556110556111</v>
+        <v>0.311788211788212</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.3107503607503608</v>
+        <v>0.3110556110556111</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.2999444999445005</v>
+        <v>0.3006160506160513</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.2995476745476751</v>
+        <v>0.2999444999445005</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.2994255744255749</v>
+        <v>0.2995476745476751</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.2979298479298482</v>
+        <v>0.2994255744255749</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.2816905316905318</v>
+        <v>0.2869408369408368</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.2809274059274063</v>
+        <v>0.2816905316905318</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.2803169053169061</v>
+        <v>0.2809274059274063</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.2784548784548795</v>
+        <v>0.2803169053169061</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.2780275280275284</v>
+        <v>0.2784548784548795</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.2749750249750256</v>
+        <v>0.2780275280275284</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.2666416916416918</v>
+        <v>0.263619713619714</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>0.263619713619714</v>
+        <v>0.2587051837051844</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.2587051837051844</v>
+        <v>0.257545232545233</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.257545232545233</v>
+        <v>0.2573315573315571</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.2573315573315571</v>
+        <v>0.2533938283938288</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.2533938283938288</v>
+        <v>0.2521117771117773</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.2521117771117773</v>
+        <v>0.2507992007992017</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.2507992007992017</v>
+        <v>0.2486624486624491</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.2486624486624491</v>
+        <v>0.246983571983572</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.246983571983572</v>
+        <v>0.2451520701520706</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.2451520701520706</v>
+        <v>0.2444194694194697</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>0.2444194694194697</v>
+        <v>0.2416416916416921</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.2416416916416921</v>
+        <v>0.2406954156954155</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.2406954156954155</v>
+        <v>0.2403596403596415</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.2403596403596415</v>
+        <v>0.2352314352314351</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.2352314352314351</v>
+        <v>0.2341630591630592</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.2341630591630592</v>
+        <v>0.232148407148407</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.232148407148407</v>
+        <v>0.2311077811077813</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.2311077811077813</v>
+        <v>0.2299700299700302</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.2299700299700302</v>
+        <v>0.2285742035742044</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>0.2285742035742044</v>
+        <v>0.2239066489066492</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.2239066489066492</v>
+        <v>0.2225330225330224</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.2225330225330224</v>
+        <v>0.2195110445110444</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.2195110445110444</v>
+        <v>0.2014707514707521</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.2153596403596409</v>
+        <v>0.1995476745476752</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.2130674880674881</v>
+        <v>0.1961288711288718</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.2014707514707521</v>
+        <v>0.1868742368742384</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.1995476745476752</v>
+        <v>0.1788794538794545</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.1868742368742384</v>
+        <v>0.153424353424354</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.153424353424354</v>
+        <v>0.1478077478077482</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.1478077478077482</v>
+        <v>0.1460372960372969</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.1460372960372969</v>
+        <v>0.1312937062937065</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.1190809190809197</v>
+        <v>0.1184648684648681</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.1184648684648681</v>
+        <v>0.116946941946942</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.116946941946942</v>
+        <v>0.1062604062604071</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.09496891996892054</v>
+        <v>0.09762459762459774</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.08663558663558657</v>
+        <v>0.09496891996892054</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.07222777222777266</v>
+        <v>0.08214840714840776</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.07115939615939659</v>
+        <v>0.07222777222777266</v>
       </c>
     </row>
     <row r="348" spans="1:2">
